--- a/tarix1.xlsx
+++ b/tarix1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>savol</t>
   </si>
@@ -31,46 +31,34 @@
     <t>togrijavob</t>
   </si>
   <si>
-    <t>1861-yilda nima sodir bo‘lgan?</t>
-  </si>
-  <si>
-    <t>1917-yilgi inqilob qaysi davlatda?</t>
-  </si>
-  <si>
-    <t>O‘rta asrlar necha asrni o‘z ichiga oladi?</t>
-  </si>
-  <si>
-    <t>Urush</t>
-  </si>
-  <si>
-    <t>Rossiya</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Islohot</t>
-  </si>
-  <si>
-    <t>Fransiya</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Inqilob</t>
-  </si>
-  <si>
-    <t>Germaniya</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>Amir Temur qachon tug‘ilgan?</t>
+  </si>
+  <si>
+    <t>Buxoro qayerda joylashgan?</t>
+  </si>
+  <si>
+    <t>1336</t>
+  </si>
+  <si>
+    <t>Toshkent</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>Buxoro</t>
+  </si>
+  <si>
+    <t>1405</t>
+  </si>
+  <si>
+    <t>Samarqand</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -428,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,16 +444,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -473,33 +461,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
